--- a/init_excel/complete_schedule.xlsx
+++ b/init_excel/complete_schedule.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mishin Danila\PycharmProjects\ScheduleApp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mishin Danila\PycharmProjects\ScheduleApp\init_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,10 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>#</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Name</t>
   </si>
@@ -357,14 +354,15 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="21.7109375" customWidth="1"/>
     <col min="2" max="2" width="21.85546875" customWidth="1"/>
     <col min="3" max="3" width="19.7109375" customWidth="1"/>
-    <col min="4" max="4" width="23.5703125" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -377,9 +375,6 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C2" s="1"/>
